--- a/data/xlsx/Calculator.xlsx
+++ b/data/xlsx/Calculator.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -1152,15 +1152,45 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>エンチャント基本値</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>難易度 == ルナティック;難易度 == ハード;</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>エンチャント基本値ルナティック( レベル + 内部レベル );エンチャント基本値ハード( レベル + 内部レベル );エンチャント基本値ノーマル( レベル + 内部レベル );</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>エンチャント経験計算</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>clamp( エンチャント基本値, 1, 100 );</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>内部レベル計算</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>難易度 == ルナティック;難易度 == ハード;</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>clamp( 内部レベル + レベル-1, 0, 50 );clamp( 内部レベル + レベル-1, 0, 40 );clamp( 内部レベル + レベル-1, 0, 30 );</t>
         </is>
@@ -1177,7 +1207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CC31"/>
+  <dimension ref="A1:CC34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -9165,6 +9195,747 @@
         <v>30</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>エンチャント基本値ノーマル</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>15</v>
+      </c>
+      <c r="C32" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" t="n">
+        <v>15</v>
+      </c>
+      <c r="E32" t="n">
+        <v>15</v>
+      </c>
+      <c r="F32" t="n">
+        <v>15</v>
+      </c>
+      <c r="G32" t="n">
+        <v>15</v>
+      </c>
+      <c r="H32" t="n">
+        <v>15</v>
+      </c>
+      <c r="I32" t="n">
+        <v>15</v>
+      </c>
+      <c r="J32" t="n">
+        <v>15</v>
+      </c>
+      <c r="K32" t="n">
+        <v>15</v>
+      </c>
+      <c r="L32" t="n">
+        <v>15</v>
+      </c>
+      <c r="M32" t="n">
+        <v>15</v>
+      </c>
+      <c r="N32" t="n">
+        <v>15</v>
+      </c>
+      <c r="O32" t="n">
+        <v>15</v>
+      </c>
+      <c r="P32" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>15</v>
+      </c>
+      <c r="R32" t="n">
+        <v>15</v>
+      </c>
+      <c r="S32" t="n">
+        <v>15</v>
+      </c>
+      <c r="T32" t="n">
+        <v>15</v>
+      </c>
+      <c r="U32" t="n">
+        <v>15</v>
+      </c>
+      <c r="V32" t="n">
+        <v>15</v>
+      </c>
+      <c r="W32" t="n">
+        <v>15</v>
+      </c>
+      <c r="X32" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY32" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ32" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA32" t="n">
+        <v>10</v>
+      </c>
+      <c r="CB32" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>エンチャント基本値ハード</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>15</v>
+      </c>
+      <c r="C33" t="n">
+        <v>15</v>
+      </c>
+      <c r="D33" t="n">
+        <v>15</v>
+      </c>
+      <c r="E33" t="n">
+        <v>15</v>
+      </c>
+      <c r="F33" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>15</v>
+      </c>
+      <c r="H33" t="n">
+        <v>15</v>
+      </c>
+      <c r="I33" t="n">
+        <v>15</v>
+      </c>
+      <c r="J33" t="n">
+        <v>15</v>
+      </c>
+      <c r="K33" t="n">
+        <v>15</v>
+      </c>
+      <c r="L33" t="n">
+        <v>15</v>
+      </c>
+      <c r="M33" t="n">
+        <v>15</v>
+      </c>
+      <c r="N33" t="n">
+        <v>15</v>
+      </c>
+      <c r="O33" t="n">
+        <v>15</v>
+      </c>
+      <c r="P33" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>15</v>
+      </c>
+      <c r="R33" t="n">
+        <v>15</v>
+      </c>
+      <c r="S33" t="n">
+        <v>15</v>
+      </c>
+      <c r="T33" t="n">
+        <v>15</v>
+      </c>
+      <c r="U33" t="n">
+        <v>15</v>
+      </c>
+      <c r="V33" t="n">
+        <v>15</v>
+      </c>
+      <c r="W33" t="n">
+        <v>15</v>
+      </c>
+      <c r="X33" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA33" t="n">
+        <v>10</v>
+      </c>
+      <c r="CB33" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>エンチャント基本値ルナティック</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>15</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="n">
+        <v>15</v>
+      </c>
+      <c r="E34" t="n">
+        <v>15</v>
+      </c>
+      <c r="F34" t="n">
+        <v>15</v>
+      </c>
+      <c r="G34" t="n">
+        <v>15</v>
+      </c>
+      <c r="H34" t="n">
+        <v>15</v>
+      </c>
+      <c r="I34" t="n">
+        <v>15</v>
+      </c>
+      <c r="J34" t="n">
+        <v>15</v>
+      </c>
+      <c r="K34" t="n">
+        <v>15</v>
+      </c>
+      <c r="L34" t="n">
+        <v>15</v>
+      </c>
+      <c r="M34" t="n">
+        <v>15</v>
+      </c>
+      <c r="N34" t="n">
+        <v>15</v>
+      </c>
+      <c r="O34" t="n">
+        <v>15</v>
+      </c>
+      <c r="P34" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>15</v>
+      </c>
+      <c r="R34" t="n">
+        <v>15</v>
+      </c>
+      <c r="S34" t="n">
+        <v>15</v>
+      </c>
+      <c r="T34" t="n">
+        <v>15</v>
+      </c>
+      <c r="U34" t="n">
+        <v>15</v>
+      </c>
+      <c r="V34" t="n">
+        <v>15</v>
+      </c>
+      <c r="W34" t="n">
+        <v>15</v>
+      </c>
+      <c r="X34" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BQ34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BR34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BS34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BT34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BV34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BW34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BX34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>10</v>
+      </c>
+      <c r="BZ34" t="n">
+        <v>10</v>
+      </c>
+      <c r="CA34" t="n">
+        <v>10</v>
+      </c>
+      <c r="CB34" t="n">
+        <v>10</v>
+      </c>
+      <c r="CC34" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
